--- a/output_reports/Трансферы_01.01-01.02.xlsx
+++ b/output_reports/Трансферы_01.01-01.02.xlsx
@@ -56,7 +56,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCECFF"/>
+        <fgColor rgb="00CCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>14</v>
@@ -1094,7 +1094,7 @@
         <v>49</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>0</v>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4" t="n">
         <v>284</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="5" t="inlineStr"/>
       <c r="T12" s="6" t="n"/>
@@ -1249,19 +1249,19 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="4" t="n">
         <v>0</v>
@@ -1425,13 +1425,13 @@
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
@@ -1446,15 +1446,19 @@
         <v>66</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>58</v>
-      </c>
-      <c r="S16" s="5" t="inlineStr"/>
+        <v>61</v>
+      </c>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>07-09.02</t>
+        </is>
+      </c>
       <c r="T16" s="6" t="n"/>
       <c r="U16" s="6" t="n"/>
       <c r="V16" s="4" t="n"/>
@@ -1753,10 +1757,10 @@
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>434</v>
@@ -1771,21 +1775,23 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="S21" s="5" t="inlineStr"/>
       <c r="T21" s="6" t="n"/>
       <c r="U21" s="6" t="n"/>
-      <c r="V21" s="4" t="n"/>
+      <c r="V21" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -1829,13 +1835,13 @@
         </is>
       </c>
       <c r="I22" s="4" t="n">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -1847,21 +1853,23 @@
         <v>8</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S22" s="5" t="inlineStr"/>
       <c r="T22" s="6" t="n"/>
       <c r="U22" s="6" t="n"/>
-      <c r="V22" s="4" t="n"/>
+      <c r="V22" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n"/>
@@ -1929,31 +1937,31 @@
         </is>
       </c>
       <c r="I24" s="4" t="n">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M24" s="4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="R24" s="4" t="n">
         <v>0</v>
@@ -2029,10 +2037,10 @@
         </is>
       </c>
       <c r="I26" s="11" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="J26" s="12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K26" s="4" t="n">
         <v>137</v>
@@ -2050,13 +2058,13 @@
         <v>85</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>18</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S26" s="5" t="inlineStr"/>
       <c r="T26" s="6" t="n"/>
@@ -2107,19 +2115,19 @@
         </is>
       </c>
       <c r="I27" s="4" t="n">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="J27" s="14" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N27" s="4" t="n">
         <v>0</v>
@@ -2128,13 +2136,13 @@
         <v>80</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>20</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="S27" s="5" t="inlineStr"/>
       <c r="T27" s="6" t="n"/>
@@ -2183,13 +2191,13 @@
         </is>
       </c>
       <c r="I28" s="4" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J28" s="14" t="n">
         <v>2</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -2259,19 +2267,19 @@
         </is>
       </c>
       <c r="I29" s="17" t="n">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="J29" s="18" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M29" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N29" s="4" t="n">
         <v>0</v>
@@ -2280,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="S29" s="5" t="inlineStr"/>
       <c r="T29" s="6" t="n"/>
@@ -2335,10 +2343,10 @@
         </is>
       </c>
       <c r="I30" s="11" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J30" s="12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>68</v>
@@ -2356,13 +2364,13 @@
         <v>95</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>19</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S30" s="5" t="inlineStr"/>
       <c r="T30" s="6" t="n"/>
@@ -2411,10 +2419,10 @@
         </is>
       </c>
       <c r="I31" s="4" t="n">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>958</v>
@@ -2429,16 +2437,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S31" s="5" t="inlineStr"/>
       <c r="T31" s="6" t="n"/>
@@ -2566,7 +2574,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr">
+      <c r="E34" s="19" t="inlineStr">
         <is>
           <t>37075 Трансфер LM (копия оригинала) ICX Medentis D=4.5 L=4, слепочный, для открытой ложки с позиционером (арт. C-005-030001) V.1</t>
         </is>
@@ -2587,19 +2595,19 @@
         </is>
       </c>
       <c r="I34" s="4" t="n">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="K34" s="4" t="n">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="K34" s="20" t="n">
+        <v>39</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M34" s="4" t="n">
-        <v>4</v>
+      <c r="M34" s="20" t="n">
+        <v>16</v>
       </c>
       <c r="N34" s="4" t="n">
         <v>20</v>
@@ -2765,13 +2773,13 @@
         </is>
       </c>
       <c r="I37" s="4" t="n">
-        <v>1589</v>
+        <v>1476</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>1197</v>
+        <v>1038</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>0</v>
@@ -2780,19 +2788,19 @@
         <v>0</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="S37" s="5" t="inlineStr"/>
       <c r="T37" s="6" t="n"/>
@@ -2843,40 +2851,40 @@
         </is>
       </c>
       <c r="I38" s="4" t="n">
-        <v>951</v>
+        <v>852</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>681</v>
+        <v>569</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="S38" s="5" t="inlineStr"/>
       <c r="T38" s="6" t="n"/>
       <c r="U38" s="6" t="n"/>
       <c r="V38" s="4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -2921,13 +2929,13 @@
         </is>
       </c>
       <c r="I39" s="4" t="n">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -2942,13 +2950,13 @@
         <v>116</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>5</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="S39" s="5" t="inlineStr"/>
       <c r="T39" s="6" t="n"/>
@@ -2997,19 +3005,19 @@
         </is>
       </c>
       <c r="I40" s="4" t="n">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N40" s="4" t="n">
         <v>0</v>
@@ -3018,13 +3026,13 @@
         <v>95</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>4</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S40" s="5" t="inlineStr"/>
       <c r="T40" s="6" t="n"/>
@@ -3073,13 +3081,13 @@
         </is>
       </c>
       <c r="I41" s="4" t="n">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -3088,19 +3096,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="O41" s="4" t="n">
         <v>44</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>6</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S41" s="5" t="inlineStr"/>
       <c r="T41" s="6" t="n"/>
@@ -3151,13 +3159,13 @@
         </is>
       </c>
       <c r="I42" s="4" t="n">
-        <v>116</v>
+        <v>566</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>49</v>
+        <v>486</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
@@ -3169,20 +3177,20 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S42" s="5" t="inlineStr"/>
       <c r="T42" s="6" t="n">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="U42" s="6" t="n"/>
       <c r="V42" s="4" t="n">
@@ -3231,13 +3239,13 @@
         </is>
       </c>
       <c r="I43" s="4" t="n">
-        <v>71</v>
+        <v>516</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>23</v>
+        <v>461</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
@@ -3252,17 +3260,17 @@
         <v>0</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="S43" s="5" t="inlineStr"/>
       <c r="T43" s="6" t="n">
-        <v>586</v>
+        <v>2</v>
       </c>
       <c r="U43" s="6" t="n"/>
       <c r="V43" s="4" t="n"/>
@@ -3309,13 +3317,13 @@
         </is>
       </c>
       <c r="I44" s="4" t="n">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0</v>
@@ -3324,19 +3332,19 @@
         <v>8</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>38</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="S44" s="5" t="inlineStr"/>
       <c r="T44" s="6" t="n"/>
@@ -3385,19 +3393,19 @@
         </is>
       </c>
       <c r="I45" s="4" t="n">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>0</v>
@@ -3406,13 +3414,13 @@
         <v>0</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S45" s="5" t="inlineStr"/>
       <c r="T45" s="6" t="n"/>
@@ -3461,34 +3469,34 @@
         </is>
       </c>
       <c r="I46" s="4" t="n">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="J46" s="4" t="n">
+        <v>127</v>
+      </c>
+      <c r="K46" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="N46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4" t="n">
+        <v>136</v>
+      </c>
+      <c r="P46" s="4" t="n">
         <v>98</v>
       </c>
-      <c r="K46" s="4" t="n">
-        <v>166</v>
-      </c>
-      <c r="L46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="4" t="n">
-        <v>137</v>
-      </c>
-      <c r="P46" s="4" t="n">
-        <v>80</v>
-      </c>
       <c r="Q46" s="4" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S46" s="5" t="inlineStr"/>
       <c r="T46" s="6" t="n"/>
@@ -3537,13 +3545,13 @@
         </is>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -3552,19 +3560,19 @@
         <v>20</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O47" s="4" t="n">
         <v>75</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>53</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S47" s="5" t="inlineStr"/>
       <c r="T47" s="6" t="n"/>
@@ -3613,34 +3621,34 @@
         </is>
       </c>
       <c r="I48" s="4" t="n">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="S48" s="5" t="inlineStr"/>
       <c r="T48" s="6" t="n"/>
@@ -3689,34 +3697,34 @@
         </is>
       </c>
       <c r="I49" s="4" t="n">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N49" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O49" s="4" t="n">
         <v>223</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>3</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="S49" s="5" t="inlineStr"/>
       <c r="T49" s="6" t="n"/>
@@ -3767,10 +3775,10 @@
         </is>
       </c>
       <c r="I50" s="4" t="n">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>122</v>
@@ -3788,13 +3796,13 @@
         <v>87</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q50" s="4" t="n">
         <v>7</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S50" s="5" t="inlineStr"/>
       <c r="T50" s="6" t="n"/>
@@ -3869,13 +3877,13 @@
         </is>
       </c>
       <c r="I52" s="4" t="n">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>0</v>
@@ -3890,13 +3898,13 @@
         <v>72</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>28</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="S52" s="5" t="inlineStr"/>
       <c r="T52" s="6" t="n"/>
@@ -3953,7 +3961,7 @@
         <v>48</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>0</v>
@@ -3965,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>58</v>
@@ -4030,7 +4038,7 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>47105V2 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Osstem) / (отв. Straum</t>
+          <t>47105V2 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=10 для открытой ложки V.2</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
@@ -4049,40 +4057,44 @@
         </is>
       </c>
       <c r="I55" s="4" t="n">
-        <v>1248</v>
+        <v>1133</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>312</v>
+        <v>427</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>367</v>
+        <v>208</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="S55" s="5" t="inlineStr"/>
+        <v>197</v>
+      </c>
+      <c r="S55" s="5" t="inlineStr">
+        <is>
+          <t>10-14.02</t>
+        </is>
+      </c>
       <c r="T55" s="6" t="n"/>
       <c r="U55" s="6" t="n"/>
       <c r="V55" s="4" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -4103,7 +4115,7 @@
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>(отв.Dentium/Mis/Astra/Adin RS)</t>
+          <t>(отв.Dentium/Mis/MisC1/Astra/Adin RS)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -4127,13 +4139,13 @@
         </is>
       </c>
       <c r="I56" s="4" t="n">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -4148,13 +4160,13 @@
         <v>100</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S56" s="5" t="inlineStr"/>
       <c r="T56" s="6" t="n"/>
@@ -4227,13 +4239,13 @@
         </is>
       </c>
       <c r="I58" s="4" t="n">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0</v>
@@ -4248,18 +4260,16 @@
         <v>112</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="S58" s="5" t="inlineStr"/>
-      <c r="T58" s="6" t="n">
-        <v>57</v>
-      </c>
+      <c r="T58" s="6" t="n"/>
       <c r="U58" s="6" t="n"/>
       <c r="V58" s="4" t="n"/>
     </row>
@@ -4381,10 +4391,10 @@
         </is>
       </c>
       <c r="I60" s="4" t="n">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K60" s="4" t="n">
         <v>439</v>
@@ -4402,13 +4412,13 @@
         <v>0</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S60" s="5" t="inlineStr"/>
       <c r="T60" s="6" t="n"/>
@@ -4457,19 +4467,19 @@
         </is>
       </c>
       <c r="I61" s="4" t="n">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="J61" s="4" t="n">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="K61" s="4" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="L61" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M61" s="4" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N61" s="4" t="n">
         <v>0</v>
@@ -4478,13 +4488,13 @@
         <v>50</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q61" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="S61" s="5" t="inlineStr"/>
       <c r="T61" s="6" t="n"/>
@@ -4533,19 +4543,19 @@
         </is>
       </c>
       <c r="I62" s="4" t="n">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M62" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N62" s="4" t="n">
         <v>0</v>
@@ -4565,9 +4575,7 @@
       <c r="S62" s="5" t="inlineStr"/>
       <c r="T62" s="6" t="n"/>
       <c r="U62" s="6" t="n"/>
-      <c r="V62" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="V62" s="4" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="7" t="n"/>
@@ -4635,10 +4643,10 @@
         </is>
       </c>
       <c r="I64" s="4" t="n">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K64" s="4" t="n">
         <v>866</v>
@@ -4656,13 +4664,13 @@
         <v>164</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="S64" s="5" t="inlineStr"/>
       <c r="T64" s="6" t="n"/>
@@ -4713,10 +4721,10 @@
         </is>
       </c>
       <c r="I65" s="4" t="n">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>706</v>
@@ -4734,13 +4742,13 @@
         <v>70</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>20</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S65" s="5" t="inlineStr"/>
       <c r="T65" s="6" t="n"/>
@@ -4891,10 +4899,10 @@
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K68" s="4" t="n">
         <v>114</v>
@@ -4909,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>28</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R68" s="4" t="n">
         <v>10</v>
@@ -4967,19 +4975,19 @@
         </is>
       </c>
       <c r="I69" s="11" t="n">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="J69" s="12" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K69" s="4" t="n">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="L69" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M69" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N69" s="4" t="n">
         <v>4</v>
@@ -4988,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="4" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q69" s="4" t="n">
         <v>0</v>
@@ -5043,34 +5051,34 @@
         </is>
       </c>
       <c r="I70" s="17" t="n">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="J70" s="18" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K70" s="4" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L70" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M70" s="4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N70" s="4" t="n">
         <v>10</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="P70" s="4" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="R70" s="4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S70" s="5" t="inlineStr"/>
       <c r="T70" s="6" t="n"/>
@@ -5121,10 +5129,10 @@
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K71" s="4" t="n">
         <v>325</v>
@@ -5139,13 +5147,13 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>79</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R71" s="4" t="n">
         <v>1</v>
@@ -5221,34 +5229,34 @@
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K73" s="4" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="L73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M73" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N73" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O73" s="4" t="n">
         <v>3</v>
       </c>
       <c r="P73" s="4" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="Q73" s="4" t="n">
         <v>6</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="S73" s="5" t="inlineStr"/>
       <c r="T73" s="6" t="n"/>
@@ -5449,19 +5457,19 @@
         </is>
       </c>
       <c r="I76" s="17" t="n">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="J76" s="18" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K76" s="4" t="n">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="L76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M76" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N76" s="4" t="n">
         <v>20</v>
@@ -5470,13 +5478,13 @@
         <v>79</v>
       </c>
       <c r="P76" s="4" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q76" s="4" t="n">
         <v>32</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="S76" s="5" t="inlineStr"/>
       <c r="T76" s="6" t="n"/>
@@ -5627,13 +5635,13 @@
         </is>
       </c>
       <c r="I79" s="11" t="n">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="J79" s="12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L79" s="4" t="n">
         <v>0</v>
@@ -5642,10 +5650,10 @@
         <v>1</v>
       </c>
       <c r="N79" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>71</v>
@@ -5703,7 +5711,7 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J80" s="14" t="n">
         <v>26</v>
@@ -5721,7 +5729,7 @@
         <v>10</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>64</v>
@@ -5855,19 +5863,19 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J82" s="14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K82" s="4" t="n">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M82" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N82" s="4" t="n">
         <v>0</v>
@@ -6007,7 +6015,7 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J84" s="14" t="n">
         <v>0</v>
@@ -6025,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>0</v>
@@ -6083,13 +6091,13 @@
         </is>
       </c>
       <c r="I85" s="17" t="n">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J85" s="18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K85" s="4" t="n">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="L85" s="4" t="n">
         <v>0</v>
@@ -6104,13 +6112,13 @@
         <v>82</v>
       </c>
       <c r="P85" s="4" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="Q85" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S85" s="5" t="inlineStr"/>
       <c r="T85" s="6" t="n"/>
@@ -6237,13 +6245,13 @@
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J87" s="14" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K87" s="4" t="n">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="L87" s="4" t="n">
         <v>0</v>
@@ -6258,13 +6266,13 @@
         <v>100</v>
       </c>
       <c r="P87" s="4" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="Q87" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S87" s="5" t="inlineStr"/>
       <c r="T87" s="6" t="n"/>
@@ -6313,34 +6321,34 @@
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="J88" s="14" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K88" s="4" t="n">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="L88" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M88" s="4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N88" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P88" s="4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="Q88" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R88" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" s="5" t="inlineStr"/>
       <c r="T88" s="6" t="n"/>
@@ -6389,10 +6397,10 @@
         </is>
       </c>
       <c r="I89" s="17" t="n">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J89" s="18" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K89" s="4" t="n">
         <v>63</v>
@@ -6407,16 +6415,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P89" s="4" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="Q89" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S89" s="5" t="inlineStr"/>
       <c r="T89" s="6" t="n"/>
@@ -6491,10 +6499,10 @@
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J91" s="4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K91" s="4" t="n">
         <v>35</v>
@@ -6512,20 +6520,18 @@
         <v>10</v>
       </c>
       <c r="P91" s="4" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q91" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R91" s="4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S91" s="5" t="inlineStr"/>
       <c r="T91" s="6" t="n"/>
       <c r="U91" s="6" t="n"/>
-      <c r="V91" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="V91" s="4" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="7" t="n"/>
@@ -6821,13 +6827,13 @@
         </is>
       </c>
       <c r="I96" s="17" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J96" s="18" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K96" s="4" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="L96" s="4" t="n">
         <v>0</v>
@@ -6842,13 +6848,13 @@
         <v>86</v>
       </c>
       <c r="P96" s="4" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Q96" s="4" t="n">
         <v>7</v>
       </c>
       <c r="R96" s="4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="S96" s="5" t="inlineStr"/>
       <c r="T96" s="6" t="n"/>
@@ -6897,10 +6903,10 @@
         </is>
       </c>
       <c r="I97" s="11" t="n">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="J97" s="12" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="K97" s="4" t="n">
         <v>571</v>
@@ -6915,16 +6921,16 @@
         <v>2</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P97" s="4" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Q97" s="4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R97" s="4" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="S97" s="5" t="inlineStr"/>
       <c r="T97" s="6" t="n"/>
@@ -6975,13 +6981,13 @@
         </is>
       </c>
       <c r="I98" s="4" t="n">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J98" s="14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K98" s="4" t="n">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="L98" s="4" t="n">
         <v>0</v>
@@ -6993,13 +6999,13 @@
         <v>0</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P98" s="4" t="n">
         <v>37</v>
       </c>
       <c r="Q98" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R98" s="4" t="n">
         <v>3</v>
@@ -7227,22 +7233,22 @@
         </is>
       </c>
       <c r="I102" s="4" t="n">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="J102" s="14" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K102" s="4" t="n">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L102" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M102" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N102" s="4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O102" s="4" t="n">
         <v>50</v>
@@ -7303,19 +7309,19 @@
         </is>
       </c>
       <c r="I103" s="4" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J103" s="14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K103" s="4" t="n">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="L103" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M103" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N103" s="4" t="n">
         <v>0</v>
@@ -7324,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="P103" s="4" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Q103" s="4" t="n">
         <v>0</v>
@@ -7379,13 +7385,13 @@
         </is>
       </c>
       <c r="I104" s="4" t="n">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="J104" s="14" t="n">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="K104" s="4" t="n">
-        <v>1091</v>
+        <v>1022</v>
       </c>
       <c r="L104" s="4" t="n">
         <v>0</v>
@@ -7394,19 +7400,19 @@
         <v>3</v>
       </c>
       <c r="N104" s="4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="P104" s="4" t="n">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="Q104" s="4" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="R104" s="4" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S104" s="5" t="inlineStr"/>
       <c r="T104" s="6" t="n"/>
@@ -7457,13 +7463,13 @@
         </is>
       </c>
       <c r="I105" s="17" t="n">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="J105" s="18" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K105" s="4" t="n">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="L105" s="4" t="n">
         <v>0</v>
@@ -7475,16 +7481,16 @@
         <v>2</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P105" s="4" t="n">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="Q105" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R105" s="4" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="S105" s="5" t="inlineStr"/>
       <c r="T105" s="6" t="n"/>
@@ -7535,19 +7541,19 @@
         </is>
       </c>
       <c r="I106" s="11" t="n">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="J106" s="12" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K106" s="4" t="n">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L106" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M106" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N106" s="4" t="n">
         <v>12</v>
@@ -7556,7 +7562,7 @@
         <v>50</v>
       </c>
       <c r="P106" s="4" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="Q106" s="4" t="n">
         <v>0</v>
@@ -7611,19 +7617,19 @@
         </is>
       </c>
       <c r="I107" s="4" t="n">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="J107" s="14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K107" s="4" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L107" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M107" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N107" s="4" t="n">
         <v>8</v>
@@ -7632,7 +7638,7 @@
         <v>50</v>
       </c>
       <c r="P107" s="4" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Q107" s="4" t="n">
         <v>0</v>
@@ -7687,19 +7693,19 @@
         </is>
       </c>
       <c r="I108" s="4" t="n">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J108" s="14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K108" s="4" t="n">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L108" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M108" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108" s="4" t="n">
         <v>5</v>
@@ -7763,19 +7769,19 @@
         </is>
       </c>
       <c r="I109" s="4" t="n">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J109" s="14" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L109" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M109" s="4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N109" s="4" t="n">
         <v>17</v>
@@ -7839,34 +7845,34 @@
         </is>
       </c>
       <c r="I110" s="4" t="n">
-        <v>612</v>
+        <v>568</v>
       </c>
       <c r="J110" s="14" t="n">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="L110" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M110" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N110" s="4" t="n">
         <v>29</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="Q110" s="4" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="R110" s="4" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="S110" s="5" t="inlineStr"/>
       <c r="T110" s="6" t="n"/>
@@ -7917,13 +7923,13 @@
         </is>
       </c>
       <c r="I111" s="4" t="n">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="J111" s="14" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>0</v>
@@ -7938,13 +7944,13 @@
         <v>157</v>
       </c>
       <c r="P111" s="4" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="Q111" s="4" t="n">
         <v>18</v>
       </c>
       <c r="R111" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S111" s="5" t="inlineStr"/>
       <c r="T111" s="6" t="n"/>
@@ -7995,19 +8001,19 @@
         </is>
       </c>
       <c r="I112" s="4" t="n">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="J112" s="14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K112" s="4" t="n">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L112" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M112" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N112" s="4" t="n">
         <v>14</v>
@@ -8071,34 +8077,34 @@
         </is>
       </c>
       <c r="I113" s="4" t="n">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="J113" s="14" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="K113" s="4" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="L113" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M113" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N113" s="4" t="n">
         <v>2</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="Q113" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R113" s="4" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S113" s="5" t="inlineStr"/>
       <c r="T113" s="6" t="n"/>
@@ -8147,34 +8153,34 @@
         </is>
       </c>
       <c r="I114" s="4" t="n">
-        <v>1683</v>
+        <v>1653</v>
       </c>
       <c r="J114" s="14" t="n">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="K114" s="4" t="n">
-        <v>1503</v>
+        <v>1428</v>
       </c>
       <c r="L114" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M114" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N114" s="4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O114" s="4" t="n">
         <v>90</v>
       </c>
       <c r="P114" s="4" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Q114" s="4" t="n">
         <v>21</v>
       </c>
       <c r="R114" s="4" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="S114" s="5" t="inlineStr"/>
       <c r="T114" s="6" t="n"/>
@@ -8225,19 +8231,19 @@
         </is>
       </c>
       <c r="I115" s="4" t="n">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="J115" s="14" t="n">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="K115" s="4" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L115" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M115" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N115" s="4" t="n">
         <v>0</v>
@@ -8246,13 +8252,13 @@
         <v>3</v>
       </c>
       <c r="P115" s="4" t="n">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="Q115" s="4" t="n">
         <v>45</v>
       </c>
       <c r="R115" s="4" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="S115" s="5" t="inlineStr"/>
       <c r="T115" s="6" t="n"/>
@@ -8301,19 +8307,19 @@
         </is>
       </c>
       <c r="I116" s="4" t="n">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J116" s="14" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L116" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M116" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N116" s="4" t="n">
         <v>0</v>
@@ -8322,13 +8328,13 @@
         <v>0</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q116" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S116" s="5" t="inlineStr"/>
       <c r="T116" s="6" t="n"/>
@@ -8377,10 +8383,10 @@
         </is>
       </c>
       <c r="I117" s="17" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J117" s="18" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K117" s="4" t="n">
         <v>33</v>
@@ -8398,20 +8404,18 @@
         <v>0</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q117" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="S117" s="5" t="inlineStr">
-        <is>
-          <t>31.01-03.02</t>
-        </is>
-      </c>
-      <c r="T117" s="6" t="n"/>
+        <v>29</v>
+      </c>
+      <c r="S117" s="5" t="inlineStr"/>
+      <c r="T117" s="6" t="n">
+        <v>594</v>
+      </c>
       <c r="U117" s="6" t="n"/>
       <c r="V117" s="4" t="n"/>
     </row>
@@ -8481,13 +8485,13 @@
         </is>
       </c>
       <c r="I119" s="4" t="n">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K119" s="4" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="L119" s="4" t="n">
         <v>0</v>
@@ -8502,13 +8506,13 @@
         <v>45</v>
       </c>
       <c r="P119" s="4" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="Q119" s="4" t="n">
         <v>5</v>
       </c>
       <c r="R119" s="4" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="S119" s="5" t="inlineStr"/>
       <c r="T119" s="6" t="n"/>
@@ -8536,7 +8540,7 @@
           <t>RC</t>
         </is>
       </c>
-      <c r="E120" s="19" t="inlineStr">
+      <c r="E120" s="3" t="inlineStr">
         <is>
           <t>37142 Трансфер LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 L=30 для открытой ложки с позиционером (арт. 025.4205) V.1</t>
         </is>
@@ -8557,39 +8561,37 @@
         </is>
       </c>
       <c r="I120" s="4" t="n">
-        <v>55</v>
+        <v>417</v>
       </c>
       <c r="J120" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="K120" s="20" t="n">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="K120" s="4" t="n">
+        <v>374</v>
       </c>
       <c r="L120" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M120" s="20" t="n">
+      <c r="M120" s="4" t="n">
         <v>4</v>
       </c>
       <c r="N120" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O120" s="4" t="n">
         <v>42</v>
       </c>
       <c r="P120" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q120" s="4" t="n">
         <v>3</v>
       </c>
       <c r="R120" s="4" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="S120" s="5" t="inlineStr"/>
-      <c r="T120" s="6" t="n">
-        <v>426</v>
-      </c>
+      <c r="T120" s="6" t="n"/>
       <c r="U120" s="6" t="n"/>
       <c r="V120" s="4" t="n">
         <v>1</v>
@@ -8661,13 +8663,13 @@
         </is>
       </c>
       <c r="I122" s="4" t="n">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="J122" s="4" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K122" s="4" t="n">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="L122" s="4" t="n">
         <v>0</v>
@@ -8679,21 +8681,19 @@
         <v>13</v>
       </c>
       <c r="O122" s="4" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P122" s="4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q122" s="4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R122" s="4" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="S122" s="5" t="inlineStr"/>
-      <c r="T122" s="6" t="n">
-        <v>116</v>
-      </c>
+      <c r="T122" s="6" t="n"/>
       <c r="U122" s="6" t="n"/>
       <c r="V122" s="4" t="n"/>
     </row>
@@ -8915,19 +8915,19 @@
         </is>
       </c>
       <c r="I126" s="17" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="J126" s="18" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K126" s="4" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L126" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M126" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N126" s="4" t="n">
         <v>0</v>
@@ -8936,13 +8936,13 @@
         <v>0</v>
       </c>
       <c r="P126" s="4" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q126" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R126" s="4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S126" s="5" t="inlineStr"/>
       <c r="T126" s="6" t="n"/>
@@ -9067,34 +9067,34 @@
         </is>
       </c>
       <c r="I128" s="17" t="n">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="J128" s="18" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K128" s="4" t="n">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="L128" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M128" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N128" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O128" s="4" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="P128" s="4" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="Q128" s="4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R128" s="4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S128" s="5" t="inlineStr"/>
       <c r="T128" s="6" t="n"/>
@@ -9219,13 +9219,13 @@
         </is>
       </c>
       <c r="I130" s="17" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J130" s="18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K130" s="4" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L130" s="4" t="n">
         <v>2</v>
@@ -9240,13 +9240,13 @@
         <v>207</v>
       </c>
       <c r="P130" s="4" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="Q130" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R130" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S130" s="5" t="inlineStr"/>
       <c r="T130" s="6" t="n"/>
